--- a/data/scheduling_DNN/predict/0.1/result18.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result18.xlsx
@@ -570,10 +570,10 @@
         <v>1.269690036773682</v>
       </c>
       <c r="V2" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4935827255249023</v>
       </c>
       <c r="W2" t="n">
-        <v>0.205335333943367</v>
+        <v>0.6023425459861755</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.010738849639893</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.8827398419380188</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3234262764453888</v>
+        <v>0.01638374663889408</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.876971960067749</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.8827009201049805</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04836828261613846</v>
+        <v>3.282098259660415e-05</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8700790405273438</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.8878576159477234</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1734319180250168</v>
+        <v>0.0003160777559969574</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8742280006408691</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4818913340568542</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06179425865411758</v>
+        <v>0.1539280563592911</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9241909980773926</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.4846328496932983</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01259293779730797</v>
+        <v>0.1932113617658615</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8601181507110596</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4803670048713684</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05491985008120537</v>
+        <v>0.1442109346389771</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8665289878845215</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5072338581085205</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1856951117515564</v>
+        <v>0.1290929913520813</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8739249706268311</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.5133199095726013</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003270389512181282</v>
+        <v>0.1300360113382339</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9321689605712891</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4922367930412292</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01347623765468597</v>
+        <v>0.1935403048992157</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8607571125030518</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.481139063835144</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1624073684215546</v>
+        <v>0.1441098600625992</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8682320117950439</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.9376475214958191</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08930537104606628</v>
+        <v>0.004818513058125973</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8625099658966064</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4810386300086975</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05828109756112099</v>
+        <v>0.1455203741788864</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.949289083480835</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.479059100151062</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2351425141096115</v>
+        <v>0.221116229891777</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8655190467834473</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.4944201111793518</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1527475416660309</v>
+        <v>0.1377144157886505</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8620970249176025</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.5132380723953247</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1411080360412598</v>
+        <v>0.121702566742897</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8683829307556152</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.9166181683540344</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1580773442983627</v>
+        <v>0.002326638204976916</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9064829349517822</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.9698124527931213</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1087358891963959</v>
+        <v>0.00401062797755003</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8641948699951172</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.4831276535987854</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09759173542261124</v>
+        <v>0.1452122181653976</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.855443000793457</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5554112195968628</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08379137516021729</v>
+        <v>0.09001906961202621</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5343179702758789</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4670390486717224</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0003148052783217281</v>
+        <v>0.004526453092694283</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5227479934692383</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4835872650146484</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0009357589296996593</v>
+        <v>0.001533562666736543</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5283949375152588</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4796637296676636</v>
       </c>
       <c r="W24" t="n">
-        <v>0.002284549875184894</v>
+        <v>0.002374730538576841</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5432741641998291</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.5846467018127441</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01150308176875114</v>
+        <v>0.00171168684028089</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.531296968460083</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.8831861019134521</v>
       </c>
       <c r="W26" t="n">
-        <v>0.008613281883299351</v>
+        <v>0.1238259598612785</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142159461975098</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.9183951020240784</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02920481003820896</v>
+        <v>0.1633607894182205</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5147120952606201</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5901429057121277</v>
       </c>
       <c r="W28" t="n">
-        <v>0.002571216318756342</v>
+        <v>0.005689807236194611</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5744509696960449</v>
       </c>
       <c r="V29" t="n">
-        <v>0.624285101890564</v>
+        <v>0.884711742401123</v>
       </c>
       <c r="W29" t="n">
-        <v>0.002483440795913339</v>
+        <v>0.09626174718141556</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5210068225860596</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4781748056411743</v>
       </c>
       <c r="W30" t="n">
-        <v>0.014663465321064</v>
+        <v>0.001834581722505391</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5136299133300781</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.8952322006225586</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01526019815355539</v>
+        <v>0.1456203013658524</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.537571907043457</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.9474304914474487</v>
       </c>
       <c r="W32" t="n">
-        <v>0.006373431533575058</v>
+        <v>0.1679840534925461</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5125949382781982</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.5305219292640686</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01084929518401623</v>
+        <v>0.00032137701055035</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5159950256347656</v>
       </c>
       <c r="V34" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5302842855453491</v>
       </c>
       <c r="W34" t="n">
-        <v>0.006505466066300869</v>
+        <v>0.0002041829429799691</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5142068862915039</v>
       </c>
       <c r="V35" t="n">
-        <v>0.480756551027298</v>
+        <v>0.5300363898277283</v>
       </c>
       <c r="W35" t="n">
-        <v>0.001118924934417009</v>
+        <v>0.0002505731827113777</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.516063928604126</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.4843856692314148</v>
       </c>
       <c r="W36" t="n">
-        <v>0.001837610732764006</v>
+        <v>0.001003512064926326</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.529803991317749</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.5024868845939636</v>
       </c>
       <c r="W37" t="n">
-        <v>0.00875325221568346</v>
+        <v>0.000746224308386445</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5123329162597656</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4910722374916077</v>
       </c>
       <c r="W38" t="n">
-        <v>0.005770126823335886</v>
+        <v>0.0004520164511632174</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5132081508636475</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4671228528022766</v>
       </c>
       <c r="W39" t="n">
-        <v>0.00138743023853749</v>
+        <v>0.002123854588717222</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5675179958343506</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.9629794955253601</v>
       </c>
       <c r="W40" t="n">
-        <v>0.001379044027999043</v>
+        <v>0.1563898026943207</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5141711235046387</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5300782918930054</v>
       </c>
       <c r="W41" t="n">
-        <v>0.006090107373893261</v>
+        <v>0.000253038015216589</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3912451267242432</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5896753668785095</v>
       </c>
       <c r="W42" t="n">
-        <v>0.006307995412498713</v>
+        <v>0.03937456011772156</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4188210964202881</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.5107878446578979</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002052603755146265</v>
+        <v>0.008457882329821587</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3873109817504883</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4870336651802063</v>
       </c>
       <c r="W44" t="n">
-        <v>6.896878767292947e-05</v>
+        <v>0.0099446140229702</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3885190486907959</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.8754355907440186</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02723919041454792</v>
+        <v>0.2370877116918564</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4428520202636719</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.5030803680419922</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1396041363477707</v>
+        <v>0.003627453930675983</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4218389987945557</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4816027283668518</v>
       </c>
       <c r="W47" t="n">
-        <v>0.006323371548205614</v>
+        <v>0.003571703331544995</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4087378978729248</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4671158194541931</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03692775964736938</v>
+        <v>0.003407981712371111</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3881540298461914</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.9173188805580139</v>
       </c>
       <c r="W49" t="n">
-        <v>0.003668328048661351</v>
+        <v>0.2800154387950897</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3886270523071289</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.8842256665229797</v>
       </c>
       <c r="W50" t="n">
-        <v>0.002246488584205508</v>
+        <v>0.2456179857254028</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3858070373535156</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.4807828664779663</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01386017538607121</v>
+        <v>0.009020407684147358</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4010021686553955</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5301163196563721</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001246398314833641</v>
+        <v>0.0166704636067152</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3893020153045654</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.8788397312164307</v>
       </c>
       <c r="W53" t="n">
-        <v>0.002181761432439089</v>
+        <v>0.2396471798419952</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3831720352172852</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5367400050163269</v>
       </c>
       <c r="W54" t="n">
-        <v>0.09356173872947693</v>
+        <v>0.02358312159776688</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3851089477539062</v>
       </c>
       <c r="V55" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4813488721847534</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1860881149768829</v>
+        <v>0.009262123145163059</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3868100643157959</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.510629415512085</v>
       </c>
       <c r="W56" t="n">
-        <v>5.559778219321743e-05</v>
+        <v>0.01533123198896646</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3875558376312256</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5304439663887024</v>
       </c>
       <c r="W57" t="n">
-        <v>0.00500038918107748</v>
+        <v>0.02041701786220074</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3889069557189941</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.9121828675270081</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0001227088796440512</v>
+        <v>0.2738176882266998</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.4009251594543457</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.5133532881736755</v>
       </c>
       <c r="W59" t="n">
-        <v>0.01503688935190439</v>
+        <v>0.01264008414000273</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3869838714599609</v>
       </c>
       <c r="V60" t="n">
-        <v>0.504918098449707</v>
+        <v>0.889494001865387</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01390848215669394</v>
+        <v>0.2525164186954498</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3930368423461914</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.9562148451805115</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0536024197936058</v>
+        <v>0.3171694576740265</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9245188236236572</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.5887565612792969</v>
       </c>
       <c r="W62" t="n">
-        <v>0.09037909656763077</v>
+        <v>0.1127362996339798</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9382460117340088</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.9093748927116394</v>
       </c>
       <c r="W63" t="n">
-        <v>0.2522279620170593</v>
+        <v>0.0008335415041074157</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8619019985198975</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.5130684375762939</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1566925048828125</v>
+        <v>0.1216848567128181</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8620679378509521</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4673561453819275</v>
       </c>
       <c r="W65" t="n">
-        <v>0.001515911426395178</v>
+        <v>0.1557973921298981</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8786609172821045</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4636244177818298</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1018409952521324</v>
+        <v>0.1722552925348282</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8612771034240723</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4795113801956177</v>
       </c>
       <c r="W67" t="n">
-        <v>0.05540040135383606</v>
+        <v>0.1457450687885284</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8796980381011963</v>
       </c>
       <c r="V68" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5533309578895569</v>
       </c>
       <c r="W68" t="n">
-        <v>0.02387916669249535</v>
+        <v>0.1065154746174812</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8565430641174316</v>
       </c>
       <c r="V69" t="n">
-        <v>0.476378470659256</v>
+        <v>0.488636314868927</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1445251107215881</v>
+        <v>0.1353553831577301</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8605020046234131</v>
       </c>
       <c r="V70" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5023696422576904</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2319941222667694</v>
+        <v>0.1282587945461273</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.858828067779541</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4847758412361145</v>
       </c>
       <c r="W71" t="n">
-        <v>0.05821630731225014</v>
+        <v>0.1399150639772415</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8659281730651855</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.5807387232780457</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1614129245281219</v>
+        <v>0.08133301883935928</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8811218738555908</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.5810821652412415</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1793485134840012</v>
+        <v>0.09002382308244705</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8621559143066406</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.589111864566803</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1818208992481232</v>
+        <v>0.07455305010080338</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9281289577484131</v>
       </c>
       <c r="V75" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5903722643852234</v>
       </c>
       <c r="W75" t="n">
-        <v>0.03659073263406754</v>
+        <v>0.114079587161541</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8757820129394531</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4778727293014526</v>
       </c>
       <c r="W76" t="n">
-        <v>0.003526500659063458</v>
+        <v>0.1583317965269089</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8591148853302002</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4879105687141418</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1463634520769119</v>
+        <v>0.1377926468849182</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8604319095611572</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5111791491508484</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08535636961460114</v>
+        <v>0.1219774931669235</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9253880977630615</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5535855293273926</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2066872119903564</v>
+        <v>0.1382371485233307</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8592870235443115</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4918988347053528</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1610796600580215</v>
+        <v>0.1349740773439407</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8524949550628662</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.4815769195556641</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04223432019352913</v>
+        <v>0.1375801861286163</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5408709049224854</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9283108115196228</v>
       </c>
       <c r="W82" t="n">
-        <v>0.001515512354671955</v>
+        <v>0.1501096785068512</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5216939449310303</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5099000334739685</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0009738300577737391</v>
+        <v>0.0001390963443554938</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5686008930206299</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.9112381339073181</v>
       </c>
       <c r="W84" t="n">
-        <v>0.004170694854110479</v>
+        <v>0.1174002811312675</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5140869617462158</v>
       </c>
       <c r="V85" t="n">
-        <v>0.551541268825531</v>
+        <v>0.9493482708930969</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001402825117111206</v>
+        <v>0.1894524097442627</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5138490200042725</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4916190505027771</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02161522582173347</v>
+        <v>0.0004941715160384774</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5116360187530518</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5304104089736938</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001889352919533849</v>
+        <v>0.0003524777421262115</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5138940811157227</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5063175559043884</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01787707954645157</v>
+        <v>5.740373308071867e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5176048278808594</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.9452866911888123</v>
       </c>
       <c r="W89" t="n">
-        <v>0.001822408870793879</v>
+        <v>0.1829117834568024</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5183300971984863</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.867037832736969</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01149616576731205</v>
+        <v>0.1215970814228058</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5258800983428955</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.4747638702392578</v>
       </c>
       <c r="W91" t="n">
-        <v>0.009049257263541222</v>
+        <v>0.002612868789583445</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5176708698272705</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4882017970085144</v>
       </c>
       <c r="W92" t="n">
-        <v>0.002142232609912753</v>
+        <v>0.0008684262284077704</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5166809558868408</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.9390920996665955</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001640521571971476</v>
+        <v>0.1784311681985855</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5093381404876709</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5300883054733276</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02223971672356129</v>
+        <v>0.0004305693437345326</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5585439205169678</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4809320569038391</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0002106068714056164</v>
+        <v>0.006023601163178682</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5156550407409668</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4830199480056763</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003363443305715919</v>
+        <v>0.001065049320459366</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5176880359649658</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.895396888256073</v>
       </c>
       <c r="W97" t="n">
-        <v>0.001089754980057478</v>
+        <v>0.1426639705896378</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5105881690979004</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4784232378005981</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01280540507286787</v>
+        <v>0.001034582848660648</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5191740989685059</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.483427882194519</v>
       </c>
       <c r="W99" t="n">
-        <v>0.009545452892780304</v>
+        <v>0.001277792034670711</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5402109622955322</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.8816166520118713</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02505877986550331</v>
+        <v>0.1165578439831734</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5146641731262207</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4672403335571289</v>
       </c>
       <c r="W101" t="n">
-        <v>0.001224338542670012</v>
+        <v>0.002249020617455244</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4083199501037598</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4675229787826538</v>
       </c>
       <c r="W102" t="n">
-        <v>0.04657820239663124</v>
+        <v>0.00350499851629138</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3989789485931396</v>
       </c>
       <c r="V103" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8818516135215759</v>
       </c>
       <c r="W103" t="n">
-        <v>0.00591652188450098</v>
+        <v>0.2331660091876984</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3870809078216553</v>
       </c>
       <c r="V104" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4877752065658569</v>
       </c>
       <c r="W104" t="n">
-        <v>0.007682804949581623</v>
+        <v>0.01013934146612883</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3945848941802979</v>
       </c>
       <c r="V105" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.4822475910186768</v>
       </c>
       <c r="W105" t="n">
-        <v>0.1150523647665977</v>
+        <v>0.007684748619794846</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3872430324554443</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5133756399154663</v>
       </c>
       <c r="W106" t="n">
-        <v>0.07063658535480499</v>
+        <v>0.01590943522751331</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.388275146484375</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.4919487833976746</v>
       </c>
       <c r="W107" t="n">
-        <v>0.05580726638436317</v>
+        <v>0.01074822340160608</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3869559764862061</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9554883241653442</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01368627697229385</v>
+        <v>0.323229044675827</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3874819278717041</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.8848094344139099</v>
       </c>
       <c r="W109" t="n">
-        <v>0.05361837521195412</v>
+        <v>0.2473346441984177</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3869829177856445</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.8849433064460754</v>
       </c>
       <c r="W110" t="n">
-        <v>0.002405008301138878</v>
+        <v>0.247964546084404</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3910839557647705</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5810233950614929</v>
       </c>
       <c r="W111" t="n">
-        <v>0.004101985134184361</v>
+        <v>0.03607698902487755</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4147169589996338</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.5341883301734924</v>
       </c>
       <c r="W112" t="n">
-        <v>0.005270177032798529</v>
+        <v>0.01427340880036354</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3924050331115723</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.9383413195610046</v>
       </c>
       <c r="W113" t="n">
-        <v>0.05370121821761131</v>
+        <v>0.2980464398860931</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.390070915222168</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4669659733772278</v>
       </c>
       <c r="W114" t="n">
-        <v>0.06433134526014328</v>
+        <v>0.005912850145250559</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3916049003601074</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.5324405431747437</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001973112812265754</v>
+        <v>0.01983467862010002</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4816840291023254</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0279754064977169</v>
+        <v>0.008916265331208706</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3892989158630371</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.8786906599998474</v>
       </c>
       <c r="W117" t="n">
-        <v>0.02685282193124294</v>
+        <v>0.2395042777061462</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4139010906219482</v>
       </c>
       <c r="V118" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.9386249184608459</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1110791116952896</v>
+        <v>0.2753351032733917</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4412240982055664</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4840427041053772</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0002004399721045047</v>
+        <v>0.001833433052524924</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3907618522644043</v>
       </c>
       <c r="V120" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.8769820332527161</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1116297468543053</v>
+        <v>0.236410066485405</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3884119987487793</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5542483329772949</v>
       </c>
       <c r="W121" t="n">
-        <v>0.002266943454742432</v>
+        <v>0.02750168927013874</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8601222038269043</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4820377230644226</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1800969392061234</v>
+        <v>0.1429478675127029</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9245061874389648</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5025089979171753</v>
       </c>
       <c r="W123" t="n">
-        <v>0.09329341351985931</v>
+        <v>0.1780816316604614</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9203100204467773</v>
       </c>
       <c r="V124" t="n">
-        <v>0.618610143661499</v>
+        <v>0.4672868251800537</v>
       </c>
       <c r="W124" t="n">
-        <v>0.09102281928062439</v>
+        <v>0.2052300125360489</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8656120300292969</v>
       </c>
       <c r="V125" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.8655973076820374</v>
       </c>
       <c r="W125" t="n">
-        <v>0.002883161883801222</v>
+        <v>2.167475088299398e-10</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8851768970489502</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4792070984840393</v>
       </c>
       <c r="W126" t="n">
-        <v>0.04047976434230804</v>
+        <v>0.1648114770650864</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8620259761810303</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4799621105194092</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2337653934955597</v>
+        <v>0.145972803235054</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9070391654968262</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5298595428466797</v>
       </c>
       <c r="W128" t="n">
-        <v>0.06260155141353607</v>
+        <v>0.1422644704580307</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8604631423950195</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9364292025566101</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1251082718372345</v>
+        <v>0.005770842079073191</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8581531047821045</v>
       </c>
       <c r="V130" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.9383090734481812</v>
       </c>
       <c r="W130" t="n">
-        <v>0.01478062476962805</v>
+        <v>0.00642497930675745</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8741350173950195</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5090020298957825</v>
       </c>
       <c r="W131" t="n">
-        <v>0.09163157641887665</v>
+        <v>0.1333221048116684</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9584860801696777</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.479096531867981</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1155620887875557</v>
+        <v>0.2298143357038498</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8725981712341309</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5142915844917297</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1906022578477859</v>
+        <v>0.128383606672287</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8590209484100342</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.9397220015525818</v>
       </c>
       <c r="W134" t="n">
-        <v>0.09267508983612061</v>
+        <v>0.006512660067528486</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8762891292572021</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5081056356430054</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1076544001698494</v>
+        <v>0.13555908203125</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8743970394134521</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5301953554153442</v>
       </c>
       <c r="W136" t="n">
-        <v>0.05776193737983704</v>
+        <v>0.1184747964143753</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8700361251831055</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.4707489013671875</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1360452175140381</v>
+        <v>0.1594302803277969</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8490619659423828</v>
       </c>
       <c r="V138" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4888615012168884</v>
       </c>
       <c r="W138" t="n">
-        <v>0.01377737056463957</v>
+        <v>0.1297443807125092</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8542399406433105</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.8946884870529175</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05222549289464951</v>
+        <v>0.00163608486764133</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8613569736480713</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.4779545068740845</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1192225962877274</v>
+        <v>0.1469974517822266</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.865792989730835</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.8813657164573669</v>
       </c>
       <c r="W141" t="n">
-        <v>0.04932232946157455</v>
+        <v>0.0002425098209641874</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5194821357727051</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4915415048599243</v>
       </c>
       <c r="W142" t="n">
-        <v>0.006965801119804382</v>
+        <v>0.0007806788780726492</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5194950103759766</v>
       </c>
       <c r="V143" t="n">
-        <v>0.436014860868454</v>
+        <v>0.5305287837982178</v>
       </c>
       <c r="W143" t="n">
-        <v>0.006968935485929251</v>
+        <v>0.000121744153148029</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5146219730377197</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5798493027687073</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01285801455378532</v>
+        <v>0.004254604689776897</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5113160610198975</v>
       </c>
       <c r="V145" t="n">
-        <v>0.458252340555191</v>
+        <v>0.9504697322845459</v>
       </c>
       <c r="W145" t="n">
-        <v>0.002815758343786001</v>
+        <v>0.1928559541702271</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5186669826507568</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5567457675933838</v>
       </c>
       <c r="W146" t="n">
-        <v>0.003296332666650414</v>
+        <v>0.001449993811547756</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5272018909454346</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.4866979718208313</v>
       </c>
       <c r="W147" t="n">
-        <v>0.002011799719184637</v>
+        <v>0.001640567439608276</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5150139331817627</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.8784903287887573</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002552255522459745</v>
+        <v>0.1321150958538055</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5216619968414307</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5302509665489197</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02293848618865013</v>
+        <v>7.377040310529992e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5699019432067871</v>
       </c>
       <c r="V150" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.9426088333129883</v>
       </c>
       <c r="W150" t="n">
-        <v>0.06093445792794228</v>
+        <v>0.1389104276895523</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.516726016998291</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4673230051994324</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01190787926316261</v>
+        <v>0.002440657466650009</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5152320861816406</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.5341460108757019</v>
       </c>
       <c r="W152" t="n">
-        <v>0.00168595789000392</v>
+        <v>0.0003577365423552692</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5111620426177979</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.4783726930618286</v>
       </c>
       <c r="W153" t="n">
-        <v>0.001796446274966002</v>
+        <v>0.001075141481123865</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5128259658813477</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.9681193232536316</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0001228621113114059</v>
+        <v>0.2072920352220535</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5488100051879883</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5299122929573059</v>
       </c>
       <c r="W155" t="n">
-        <v>7.329302025027573e-05</v>
+        <v>0.000357123528374359</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5195050239562988</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.9502729177474976</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01098938472568989</v>
+        <v>0.1855609714984894</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.520866870880127</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.5324609279632568</v>
       </c>
       <c r="W157" t="n">
-        <v>0.001052222563885152</v>
+        <v>0.0001344221527688205</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5192098617553711</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.8823094964027405</v>
       </c>
       <c r="W158" t="n">
-        <v>0.001430790638551116</v>
+        <v>0.1318413466215134</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5162031650543213</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9146224856376648</v>
       </c>
       <c r="W159" t="n">
-        <v>0.003332194173708558</v>
+        <v>0.1587379574775696</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5165669918060303</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.9078866839408875</v>
       </c>
       <c r="W160" t="n">
-        <v>0.003364833071827888</v>
+        <v>0.1531310975551605</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5403211116790771</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.8813213109970093</v>
       </c>
       <c r="W161" t="n">
-        <v>0.004843705799430609</v>
+        <v>0.1162811368703842</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3938150405883789</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5833545923233032</v>
       </c>
       <c r="W162" t="n">
-        <v>0.001780678983777761</v>
+        <v>0.03592524304986</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3892979621887207</v>
       </c>
       <c r="V163" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4819066524505615</v>
       </c>
       <c r="W163" t="n">
-        <v>0.03221998736262321</v>
+        <v>0.008576369844377041</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3954229354858398</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5816165208816528</v>
       </c>
       <c r="W164" t="n">
-        <v>0.001626445795409381</v>
+        <v>0.03466805070638657</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3914718627929688</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5837206244468689</v>
       </c>
       <c r="W165" t="n">
-        <v>0.05574257299304008</v>
+        <v>0.03695958480238914</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3905520439147949</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.8861220479011536</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0458935983479023</v>
+        <v>0.2455896288156509</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4481298923492432</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5126602649688721</v>
       </c>
       <c r="W167" t="n">
-        <v>0.04347787797451019</v>
+        <v>0.004164169076830149</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.391279935836792</v>
       </c>
       <c r="V168" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.8754467368125916</v>
       </c>
       <c r="W168" t="n">
-        <v>0.1314899772405624</v>
+        <v>0.2344174981117249</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4046139717102051</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5302943587303162</v>
       </c>
       <c r="W169" t="n">
-        <v>0.04695897549390793</v>
+        <v>0.01579556055366993</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3889758586883545</v>
       </c>
       <c r="V170" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4879606366157532</v>
       </c>
       <c r="W170" t="n">
-        <v>0.006757627241313457</v>
+        <v>0.009797986596822739</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3893430233001709</v>
       </c>
       <c r="V171" t="n">
-        <v>0.57613205909729</v>
+        <v>0.494183361530304</v>
       </c>
       <c r="W171" t="n">
-        <v>0.03489014506340027</v>
+        <v>0.01099149696528912</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3897321224212646</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.9180636405944824</v>
       </c>
       <c r="W172" t="n">
-        <v>0.004076379351317883</v>
+        <v>0.2791341841220856</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4331810474395752</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.488176703453064</v>
       </c>
       <c r="W173" t="n">
-        <v>0.05078558623790741</v>
+        <v>0.003024522215127945</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3901619911193848</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4916396737098694</v>
       </c>
       <c r="W174" t="n">
-        <v>0.05528979375958443</v>
+        <v>0.01029772032052279</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3931159973144531</v>
       </c>
       <c r="V175" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.4782583117485046</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1756013929843903</v>
+        <v>0.007249213755130768</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3913121223449707</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9474167227745056</v>
       </c>
       <c r="W176" t="n">
-        <v>0.00448523135855794</v>
+        <v>0.3092523217201233</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.400521993637085</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.5805870890617371</v>
       </c>
       <c r="W177" t="n">
-        <v>0.001737834303639829</v>
+        <v>0.03242344036698341</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3934769630432129</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.479712963104248</v>
       </c>
       <c r="W178" t="n">
-        <v>0.004244723357260227</v>
+        <v>0.007436647545546293</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3917620182037354</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4892021417617798</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0709163025021553</v>
+        <v>0.009494577534496784</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3930468559265137</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.5536825656890869</v>
       </c>
       <c r="W180" t="n">
-        <v>0.05375393852591515</v>
+        <v>0.0258038304746151</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4042179584503174</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.881795346736908</v>
       </c>
       <c r="W181" t="n">
-        <v>0.0006592407589778304</v>
+        <v>0.2280801683664322</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8739430904388428</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4970613718032837</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1921251118183136</v>
+        <v>0.1420398354530334</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9143209457397461</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.9075742363929749</v>
       </c>
       <c r="W183" t="n">
-        <v>0.084068663418293</v>
+        <v>4.551808524411172e-05</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.929595947265625</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.8775925636291504</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2061767280101776</v>
+        <v>0.002704351907595992</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8785200119018555</v>
       </c>
       <c r="V185" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.4818395376205444</v>
       </c>
       <c r="W185" t="n">
-        <v>0.02095363289117813</v>
+        <v>0.157355397939682</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8799419403076172</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.8974899053573608</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2515665292739868</v>
+        <v>0.0003079310699831694</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8876979351043701</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.5325867533683777</v>
       </c>
       <c r="W187" t="n">
-        <v>0.06954655796289444</v>
+        <v>0.1261039525270462</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9252371788024902</v>
       </c>
       <c r="V188" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4703568816184998</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2393262833356857</v>
+        <v>0.2069160789251328</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.870772123336792</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4671700000762939</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1344046294689178</v>
+        <v>0.162894681096077</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8548979759216309</v>
       </c>
       <c r="V190" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9251673817634583</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1756124943494797</v>
+        <v>0.004937789402902126</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8780770301818848</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4795421957969666</v>
       </c>
       <c r="W191" t="n">
-        <v>0.05498071387410164</v>
+        <v>0.1588300168514252</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9158711433410645</v>
       </c>
       <c r="V192" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.47091144323349</v>
       </c>
       <c r="W192" t="n">
-        <v>0.00942674744874239</v>
+        <v>0.1979891359806061</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8588080406188965</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.5142174959182739</v>
       </c>
       <c r="W193" t="n">
-        <v>0.04068730399012566</v>
+        <v>0.1187426447868347</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8612990379333496</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.506361186504364</v>
       </c>
       <c r="W194" t="n">
-        <v>0.09544263035058975</v>
+        <v>0.1259808838367462</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8654680252075195</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4669643044471741</v>
       </c>
       <c r="W195" t="n">
-        <v>0.06042860820889473</v>
+        <v>0.1588052213191986</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9180011749267578</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4859322309494019</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2119355201721191</v>
+        <v>0.1866835653781891</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8679180145263672</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4818633794784546</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2283099144697189</v>
+        <v>0.1490381807088852</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8556070327758789</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4786306023597717</v>
       </c>
       <c r="W198" t="n">
-        <v>0.161434531211853</v>
+        <v>0.1421112269163132</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8628361225128174</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5811453461647034</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08501525968313217</v>
+        <v>0.07934969663619995</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9108748435974121</v>
       </c>
       <c r="V200" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.529843270778656</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1169327795505524</v>
+        <v>0.1451850533485413</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8789441585540771</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4982489347457886</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1625669449567795</v>
+        <v>0.1449288576841354</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5185210704803467</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9369485974311829</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01195522490888834</v>
+        <v>0.1750815957784653</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5143020153045654</v>
       </c>
       <c r="V203" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4784364104270935</v>
       </c>
       <c r="W203" t="n">
-        <v>0.002231793943792582</v>
+        <v>0.001286341575905681</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5233390331268311</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.483547031879425</v>
       </c>
       <c r="W204" t="n">
-        <v>0.002754573943093419</v>
+        <v>0.001583403325639665</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.574552059173584</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9244938492774963</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01917222328484058</v>
+        <v>0.1224592551589012</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5172691345214844</v>
       </c>
       <c r="V206" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.881976306438446</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01075856946408749</v>
+        <v>0.1330113261938095</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5183050632476807</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.9246521592140198</v>
       </c>
       <c r="W207" t="n">
-        <v>9.19961094041355e-05</v>
+        <v>0.1651179641485214</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5169990062713623</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.481397807598114</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01607287488877773</v>
+        <v>0.001267445390112698</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V209" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.8812456727027893</v>
       </c>
       <c r="W209" t="n">
-        <v>0.09387128055095673</v>
+        <v>0.1328286975622177</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5175690650939941</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.8785306811332703</v>
       </c>
       <c r="W210" t="n">
-        <v>0.003606422571465373</v>
+        <v>0.1302932947874069</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5190808773040771</v>
       </c>
       <c r="V211" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4809185266494751</v>
       </c>
       <c r="W211" t="n">
-        <v>0.002503429539501667</v>
+        <v>0.001456364989280701</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.519989013671875</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4960137605667114</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01523049548268318</v>
+        <v>0.0005748127587139606</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5166049003601074</v>
       </c>
       <c r="V213" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5133752226829529</v>
       </c>
       <c r="W213" t="n">
-        <v>0.002017407212406397</v>
+        <v>1.043081829266157e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5213429927825928</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4844154119491577</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01841775514185429</v>
+        <v>0.001363646239042282</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5213229656219482</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.478901207447052</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01932029612362385</v>
+        <v>0.001799605553969741</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5711688995361328</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.9121032357215881</v>
       </c>
       <c r="W216" t="n">
-        <v>0.006023980677127838</v>
+        <v>0.116236224770546</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.518887996673584</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.478098452091217</v>
       </c>
       <c r="W217" t="n">
-        <v>0.009980868548154831</v>
+        <v>0.001663786941207945</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5197031497955322</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.9238864779472351</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01088685169816017</v>
+        <v>0.1633641570806503</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5185332298278809</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4783602356910706</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01960563659667969</v>
+        <v>0.001613869448192418</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5172488689422607</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.9144040942192078</v>
       </c>
       <c r="W220" t="n">
-        <v>0.001006198930554092</v>
+        <v>0.1577322781085968</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5520570278167725</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4700321555137634</v>
       </c>
       <c r="W221" t="n">
-        <v>0.002530330093577504</v>
+        <v>0.00672807963564992</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3859729766845703</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5103693008422852</v>
       </c>
       <c r="W222" t="n">
-        <v>0.004773404449224472</v>
+        <v>0.01547444518655539</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.389779806137085</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4795937538146973</v>
       </c>
       <c r="W223" t="n">
-        <v>0.004639327991753817</v>
+        <v>0.008066545240581036</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3934268951416016</v>
       </c>
       <c r="V224" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5030189752578735</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01254017930477858</v>
+        <v>0.0120104243978858</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3881750106811523</v>
       </c>
       <c r="V225" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5247100591659546</v>
       </c>
       <c r="W225" t="n">
-        <v>0.03240427374839783</v>
+        <v>0.01864182017743587</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3922908306121826</v>
       </c>
       <c r="V226" t="n">
-        <v>0.812067985534668</v>
+        <v>0.8942540884017944</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1762128621339798</v>
+        <v>0.2519671022891998</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3961069583892822</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9372521042823792</v>
       </c>
       <c r="W227" t="n">
-        <v>0.07679291814565659</v>
+        <v>0.29283806681633</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3959329128265381</v>
       </c>
       <c r="V228" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.6047472357749939</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1228833347558975</v>
+        <v>0.04360342025756836</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3955931663513184</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4895589351654053</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01062035746872425</v>
+        <v>0.008829565718770027</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3960201740264893</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4792676568031311</v>
       </c>
       <c r="W230" t="n">
-        <v>0.004918725695461035</v>
+        <v>0.006930143572390079</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3916089534759521</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.8839298486709595</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01269620843231678</v>
+        <v>0.2423798590898514</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4024291038513184</v>
       </c>
       <c r="V232" t="n">
-        <v>0.630542516708374</v>
+        <v>0.4866347312927246</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05203573033213615</v>
+        <v>0.007090587634593248</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3959600925445557</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.5106965303421021</v>
       </c>
       <c r="W233" t="n">
-        <v>0.02455769665539265</v>
+        <v>0.01316445041447878</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4317121505737305</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4880032539367676</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01461637206375599</v>
+        <v>0.003168688388541341</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3981490135192871</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.9342838525772095</v>
       </c>
       <c r="W235" t="n">
-        <v>0.08404916524887085</v>
+        <v>0.2874405682086945</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963549137115479</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4919060468673706</v>
       </c>
       <c r="W236" t="n">
-        <v>0.003276166273280978</v>
+        <v>0.009130018763244152</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.392866849899292</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.4749279618263245</v>
       </c>
       <c r="W237" t="n">
-        <v>0.005411437246948481</v>
+        <v>0.006734026130288839</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898019790649414</v>
       </c>
       <c r="V238" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.8883848190307617</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1215853244066238</v>
+        <v>0.2485848516225815</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3896880149841309</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4881128668785095</v>
       </c>
       <c r="W239" t="n">
-        <v>0.007096295710653067</v>
+        <v>0.009687451645731926</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.440601110458374</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5087950229644775</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0003193840966559947</v>
+        <v>0.004650409799069166</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3964200019836426</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.9385138154029846</v>
       </c>
       <c r="W241" t="n">
-        <v>0.001568616717122495</v>
+        <v>0.2938657104969025</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8892219066619873</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4824900031089783</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1486348509788513</v>
+        <v>0.1654308438301086</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8880958557128906</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5098488926887512</v>
       </c>
       <c r="W243" t="n">
-        <v>0.05193467438220978</v>
+        <v>0.1430707722902298</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8821029663085938</v>
       </c>
       <c r="V244" t="n">
-        <v>0.551807165145874</v>
+        <v>0.8830276727676392</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1090953126549721</v>
+        <v>8.550820211894461e-07</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8797919750213623</v>
       </c>
       <c r="V245" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.9096277356147766</v>
       </c>
       <c r="W245" t="n">
-        <v>0.02169792354106903</v>
+        <v>0.0008901726105250418</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8725650310516357</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4847168326377869</v>
       </c>
       <c r="W246" t="n">
-        <v>0.174944132566452</v>
+        <v>0.1504262238740921</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8623559474945068</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4999502301216125</v>
       </c>
       <c r="W247" t="n">
-        <v>0.04222804680466652</v>
+        <v>0.1313379108905792</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.868441104888916</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.8770749568939209</v>
       </c>
       <c r="W248" t="n">
-        <v>0.103059358894825</v>
+        <v>7.454340084223077e-05</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8773648738861084</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.9290869832038879</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1692191064357758</v>
+        <v>0.002675176598131657</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8719899654388428</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.9322673082351685</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1027055904269218</v>
+        <v>0.003633358050137758</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8753252029418945</v>
       </c>
       <c r="V251" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4825403690338135</v>
       </c>
       <c r="W251" t="n">
-        <v>0.06278140842914581</v>
+        <v>0.1542799323797226</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8710792064666748</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.8945422768592834</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1708875745534897</v>
+        <v>0.0005505156586878002</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8680069446563721</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.4674888253211975</v>
       </c>
       <c r="W253" t="n">
-        <v>0.06086267903447151</v>
+        <v>0.1604147702455521</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.866581916809082</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9582909345626831</v>
       </c>
       <c r="W254" t="n">
-        <v>0.08870639652013779</v>
+        <v>0.008410544134676456</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8684439659118652</v>
       </c>
       <c r="V255" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.9400354623794556</v>
       </c>
       <c r="W255" t="n">
-        <v>0.002527260687202215</v>
+        <v>0.005125342402607203</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8795788288116455</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.8824934363365173</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1970428377389908</v>
+        <v>8.49493699206505e-06</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8748559951782227</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.532559871673584</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1768945008516312</v>
+        <v>0.1171666383743286</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8639581203460693</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5113759636878967</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1422681510448456</v>
+        <v>0.1243141740560532</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8767330646514893</v>
       </c>
       <c r="V259" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5101752281188965</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2367655336856842</v>
+        <v>0.1343646496534348</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9075560569763184</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.4785639643669128</v>
       </c>
       <c r="W260" t="n">
-        <v>0.08199851214885712</v>
+        <v>0.1840342134237289</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.870189905166626</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.9902628660202026</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1344074755907059</v>
+        <v>0.01441751606762409</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5263261795043945</v>
       </c>
       <c r="V262" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5018075704574585</v>
       </c>
       <c r="W262" t="n">
-        <v>0.000629447225946933</v>
+        <v>0.0006011622026562691</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5454580783843994</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4670684933662415</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01564938016235828</v>
+        <v>0.006144926883280277</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5210950374603271</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5884328484535217</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0009617921314202249</v>
+        <v>0.004534380976110697</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5519230365753174</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.530218243598938</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01352620683610439</v>
+        <v>0.0004710980283562094</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5214288234710693</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.8914425373077393</v>
       </c>
       <c r="W266" t="n">
-        <v>0.00303080934099853</v>
+        <v>0.136910155415535</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5238571166992188</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4669686555862427</v>
       </c>
       <c r="W267" t="n">
-        <v>0.004227781668305397</v>
+        <v>0.003236297052353621</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5269119739532471</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4797182083129883</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0006157883326523006</v>
+        <v>0.002227251417934895</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5243968963623047</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.8821213841438293</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01854415982961655</v>
+        <v>0.1279668062925339</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5201678276062012</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4878241419792175</v>
       </c>
       <c r="W270" t="n">
-        <v>0.003841259283944964</v>
+        <v>0.001046114019118249</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5441799163818359</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.8821614384651184</v>
       </c>
       <c r="W271" t="n">
-        <v>3.349368125782348e-05</v>
+        <v>0.1142315119504929</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5297129154205322</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.5325578451156616</v>
       </c>
       <c r="W272" t="n">
-        <v>0.008776924572885036</v>
+        <v>8.09362518339185e-06</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5241339206695557</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.9093629717826843</v>
       </c>
       <c r="W273" t="n">
-        <v>0.004433376248925924</v>
+        <v>0.1484014242887497</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5279941558837891</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4791695475578308</v>
       </c>
       <c r="W274" t="n">
-        <v>0.004961049649864435</v>
+        <v>0.002383842365816236</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5213677883148193</v>
       </c>
       <c r="V275" t="n">
-        <v>0.473930835723877</v>
+        <v>0.6030489802360535</v>
       </c>
       <c r="W275" t="n">
-        <v>0.002250264398753643</v>
+        <v>0.006671817041933537</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5750021934509277</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.6040134429931641</v>
       </c>
       <c r="W276" t="n">
-        <v>3.896748967235908e-05</v>
+        <v>0.0008416526252403855</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5242359638214111</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.8687862753868103</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002897867700085044</v>
+        <v>0.118714913725853</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5225801467895508</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.8816751837730408</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0004327116766944528</v>
+        <v>0.1289492398500443</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5211999416351318</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.8823043704032898</v>
       </c>
       <c r="W279" t="n">
-        <v>0.002164620207622647</v>
+        <v>0.1303964108228683</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5215599536895752</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.9561391472816467</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01541977375745773</v>
+        <v>0.1888590753078461</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5221309661865234</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.5301057696342468</v>
       </c>
       <c r="W281" t="n">
-        <v>0.009852826595306396</v>
+        <v>6.359748658724129e-05</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4060540199279785</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4879501461982727</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0002377310593146831</v>
+        <v>0.006706975400447845</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4071450233459473</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4780858755111694</v>
       </c>
       <c r="W283" t="n">
-        <v>0.07708051800727844</v>
+        <v>0.005032604560256004</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3986051082611084</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.8815092444419861</v>
       </c>
       <c r="W284" t="n">
-        <v>0.02892585098743439</v>
+        <v>0.2331964075565338</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4002549648284912</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4697088003158569</v>
       </c>
       <c r="W285" t="n">
-        <v>0.003088436322286725</v>
+        <v>0.004823835100978613</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3977010250091553</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.49168860912323</v>
       </c>
       <c r="W286" t="n">
-        <v>0.005661549046635628</v>
+        <v>0.008833666332066059</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.39717698097229</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.5304226875305176</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01147924922406673</v>
+        <v>0.01775441877543926</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4492170810699463</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5815699100494385</v>
       </c>
       <c r="W288" t="n">
-        <v>3.596081660361961e-05</v>
+        <v>0.01751727052032948</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4265811443328857</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5061769485473633</v>
       </c>
       <c r="W289" t="n">
-        <v>0.004847601987421513</v>
+        <v>0.006335492245852947</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3945159912109375</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.8845282196998596</v>
       </c>
       <c r="W290" t="n">
-        <v>0.05065226554870605</v>
+        <v>0.2401119768619537</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3942210674285889</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.8643572330474854</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01140635926276445</v>
+        <v>0.2210280150175095</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3968651294708252</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.5302603840827942</v>
       </c>
       <c r="W292" t="n">
-        <v>0.009737193584442139</v>
+        <v>0.017794294282794</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3979339599609375</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.9129566550254822</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01182121876627207</v>
+        <v>0.2652483880519867</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4539699554443359</v>
       </c>
       <c r="V294" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.8729051947593689</v>
       </c>
       <c r="W294" t="n">
-        <v>0.005639411043375731</v>
+        <v>0.1755067408084869</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3958609104156494</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5032997131347656</v>
       </c>
       <c r="W295" t="n">
-        <v>0.004895431455224752</v>
+        <v>0.0115430960431695</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3947429656982422</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.5302225351333618</v>
       </c>
       <c r="W296" t="n">
-        <v>0.05326898396015167</v>
+        <v>0.01835471391677856</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.39599609375</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4675468802452087</v>
       </c>
       <c r="W297" t="n">
-        <v>0.001602501375600696</v>
+        <v>0.005119515117257833</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3994228839874268</v>
       </c>
       <c r="V298" t="n">
-        <v>0.473088413476944</v>
+        <v>0.9435957074165344</v>
       </c>
       <c r="W298" t="n">
-        <v>0.005426610354334116</v>
+        <v>0.2961240708827972</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3983569145202637</v>
       </c>
       <c r="V299" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.8835867047309875</v>
       </c>
       <c r="W299" t="n">
-        <v>0.1767060160636902</v>
+        <v>0.2354479432106018</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3944289684295654</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.4957702159881592</v>
       </c>
       <c r="W300" t="n">
-        <v>0.001729723531752825</v>
+        <v>0.01027004886418581</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3990001678466797</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4818485975265503</v>
       </c>
       <c r="W301" t="n">
-        <v>0.001867930870503187</v>
+        <v>0.006863862276077271</v>
       </c>
     </row>
     <row r="302" spans="1:23">
